--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\python\my-mvf1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A0DCE9-5BC6-45D4-9385-8EF8944E6A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350E472-FA72-452E-8671-876E8E8AE581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="585" windowWidth="18135" windowHeight="14265" xr2:uid="{0DD4A578-34A2-49AE-A888-33E0636CF4DC}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{0DD4A578-34A2-49AE-A888-33E0636CF4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,50 +107,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -186,17 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470DA7A5-C473-47D5-92EB-7867DDE961A5}">
-  <dimension ref="B6:L28"/>
+  <dimension ref="B6:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,12 +473,12 @@
     <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -559,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -577,18 +527,20 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="7">
-        <v>2</v>
-      </c>
-      <c r="K8" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -606,17 +558,20 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7">
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="7">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -634,21 +589,20 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="8">
-        <v>6</v>
-      </c>
-      <c r="I10" s="8">
-        <v>7</v>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
       <c r="K10" s="1">
-        <v>11</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -666,17 +620,18 @@
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1">
+        <v>14</v>
+      </c>
       <c r="J11" s="1">
         <v>9</v>
       </c>
       <c r="K11" s="1">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -691,12 +646,8 @@
         <f t="shared" si="1"/>
         <v>positions[10][6] =  [3, 1, 1, 1]</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -711,12 +662,8 @@
         <f t="shared" si="1"/>
         <v>positions[10][7] =  [2, 2, 1, 1]</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -732,7 +679,7 @@
         <v>positions[10][8] =  [2, 3, 1, 1]</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -748,7 +695,7 @@
         <v>positions[10][9] =  [3, 3, 1, 1]</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -766,8 +713,8 @@
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" t="str">
-        <f>"positions[11]["&amp;G18&amp;"] = [ "&amp;H18&amp;","&amp;I18&amp;","&amp;J18&amp;","&amp;K18&amp;"]"</f>
-        <v>positions[11][1] = [ 0,0,2,2]</v>
+        <f>"positions[15]["&amp;G18&amp;"] = [ "&amp;H18&amp;","&amp;I18&amp;","&amp;J18&amp;","&amp;K18&amp;"]"</f>
+        <v>positions[15][1] = [ 0,0,1,1]</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -779,25 +726,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" t="str">
-        <f t="shared" ref="E19:E32" si="2">"positions[11]["&amp;G19&amp;"] = [ "&amp;H19&amp;","&amp;I19&amp;","&amp;J19&amp;","&amp;K19&amp;"]"</f>
-        <v>positions[11][2] = [ 2,0,1,1]</v>
+        <f t="shared" ref="E19:E32" si="2">"positions[15]["&amp;G19&amp;"] = [ "&amp;H19&amp;","&amp;I19&amp;","&amp;J19&amp;","&amp;K19&amp;"]"</f>
+        <v>positions[15][2] = [ 0,1,1,1]</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -809,13 +756,13 @@
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][3] = [ 3,0,1,1]</v>
+        <v>positions[15][3] = [ 1,0,1,1]</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -830,13 +777,13 @@
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][4] = [ 2,1,1,1]</v>
+        <v>positions[15][4] = [ 1,1,1,1]</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -851,16 +798,16 @@
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][5] = [ 3,1,1,1]</v>
+        <v>positions[15][5] = [ 1,2,1,1]</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -872,49 +819,49 @@
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][6] = [ 0,2,1,2]</v>
+        <v>positions[15][6] = [ 2,0,1,1]</v>
       </c>
       <c r="G23">
         <v>6</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][7] = [ 1,2,1,2]</v>
+        <v>positions[15][7] = [ 2,1,1,1]</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][8] = [ 2,2,1,1]</v>
+        <v>positions[15][8] = [ 2,2,1,1]</v>
       </c>
       <c r="G25">
         <v>8</v>
@@ -935,7 +882,7 @@
     <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][9] = [ 2,3,1,1]</v>
+        <v>positions[15][9] = [ 2,3,1,1]</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -956,7 +903,7 @@
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][10] = [ 3,3,1,1]</v>
+        <v>positions[15][10] = [ 3,0,1,1]</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -965,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -977,7 +924,7 @@
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" t="str">
         <f t="shared" si="2"/>
-        <v>positions[11][11] = [ 3,2,1,1]</v>
+        <v>positions[15][11] = [ 3,1,1,1]</v>
       </c>
       <c r="G28">
         <v>11</v>
@@ -986,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -995,12 +942,96 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>positions[15][12] = [ 3,2,1,1]</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>positions[15][13] = [ 3,3,1,1]</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>positions[15][14] = [ 1,3,1,1]</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>positions[15][15] = [ 0,2,1,2]</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E18:K24">
-    <sortCondition ref="G18:G24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G18:K32">
+    <sortCondition ref="G18:G32"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
